--- a/biology/Zoologie/Fadet_des_tourbières/Fadet_des_tourbières.xlsx
+++ b/biology/Zoologie/Fadet_des_tourbières/Fadet_des_tourbières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fadet_des_tourbi%C3%A8res</t>
+          <t>Fadet_des_tourbières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha tullia
 Le Fadet des tourbières ou Daphnis (Coenonympha tullia), est un lépidoptère (papillon) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Coenonympha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fadet_des_tourbi%C3%A8res</t>
+          <t>Fadet_des_tourbières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Synonymes : Papilio tullia Müller, 1764, Papilio tiphon Rottemburg, 1775, Papilio davus Fabricius, 1777, Papilio philoxenus Esper, 1780, Hipparchia demophile Freyer, 1844, Coenonympha rothliebii Herrich-Schäffer, 1851, Coenonympha scotica Staudinger, 1901  Coenympha suecica Hemming, 1936[1]
-Noms vernaculaires
-en français : le Fadet des tourbières, le Daphnis (en Europe) ; le Satyre fauve (au Canada).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synonymes : Papilio tullia Müller, 1764, Papilio tiphon Rottemburg, 1775, Papilio davus Fabricius, 1777, Papilio philoxenus Esper, 1780, Hipparchia demophile Freyer, 1844, Coenonympha rothliebii Herrich-Schäffer, 1851, Coenonympha scotica Staudinger, 1901  Coenympha suecica Hemming, 1936
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français : le Fadet des tourbières, le Daphnis (en Europe) ; le Satyre fauve (au Canada).
 en anglais : Large Heath (en Europe), Common Ringlet (en Amérique).
-en allemand : Großes Wiesenvögelchen ou Grosser Heufalter.
-Sous-espèces
-Coenonympha tullia tullia (Müller, 1764) en Europe et dans l'ouest de la Sibérie.
+en allemand : Großes Wiesenvögelchen ou Grosser Heufalter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coenonympha tullia tullia (Müller, 1764) en Europe et dans l'ouest de la Sibérie.
 Coenonympha tullia ampelos (W. H. Edwards, 1871) – Northwest Common Ringlet
 Coenonympha tullia benjamini (McDunnough, 1928) – Prairie Ringlet
 Coenonympha tullia brenda
@@ -553,73 +636,7 @@
 Coenonympha tullia suecica Hemming, 1936
 Coenonympha tullia viluiensis Ménétries, 1859
 Coenonympha tullia yontocket Porter et Mattoon, 1989 le Yontocket Satyr Ringlet dans le nord de la Californie.
-Coenonympha tullia yukonensis (W. Holland, 1900) le Yukon Common Ringlet[2],[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fadet_des_tourbi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon de couleur ocre clair à marron clair au verso orné d'une ligne d'ocelles clairs centrés par un point noir présente d'importantes variations suivant les sous-espèces et les colonies. Le dessus, ocre clair peut présenter une suffusion grise aux postérieures. Il est orné d'un seul ocelle aux antérieures, et d'un, trois ou une ligne aux postérieures. Le revers présente aux antérieures généralement de couleur ocre une ligne postdiscoïdale claire et un ou deux ocelles et  aux postérieures de couleur ocre à marron suivant les sous-espèces, une ligne d'ocelles bien visibles sauf pour Coenonympha tullia scotica chez qui ils sont très réduits ou absents.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_des_tourbi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille et au nord de son aire de répartition le cycle demande deux saisons.
-En Amérique du Nord il vole en une ou deux générations, de mai à octobre suivant la localisation de sa résidence, en une génération en Europe entre juin et août[4],[5].
-Plantes hôtes
-Ses plantes hôtes sont Rhynchospora alba, Eriophorum vaginatum, Eriophorum angustifolium, Carex rostrata, ainsi que des Festuca, Poa, Stipa[5],[2].
-</t>
+Coenonympha tullia yukonensis (W. Holland, 1900) le Yukon Common Ringlet,.</t>
         </is>
       </c>
     </row>
@@ -629,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fadet_des_tourbi%C3%A8res</t>
+          <t>Fadet_des_tourbières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,19 +661,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon de couleur ocre clair à marron clair au verso orné d'une ligne d'ocelles clairs centrés par un point noir présente d'importantes variations suivant les sous-espèces et les colonies. Le dessus, ocre clair peut présenter une suffusion grise aux postérieures. Il est orné d'un seul ocelle aux antérieures, et d'un, trois ou une ligne aux postérieures. Le revers présente aux antérieures généralement de couleur ocre une ligne postdiscoïdale claire et un ou deux ocelles et  aux postérieures de couleur ocre à marron suivant les sous-espèces, une ligne d'ocelles bien visibles sauf pour Coenonympha tullia scotica chez qui ils sont très réduits ou absents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille et au nord de son aire de répartition le cycle demande deux saisons.
+En Amérique du Nord il vole en une ou deux générations, de mai à octobre suivant la localisation de sa résidence, en une génération en Europe entre juin et août,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Rhynchospora alba, Eriophorum vaginatum, Eriophorum angustifolium, Carex rostrata, ainsi que des Festuca, Poa, Stipa,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fadet des tourbières est présent dans tout l'hémisphère nord, Amérique du Nord, nord de l'Europe et  Asie tempérée[2].
-En Europe il est présent en Irlande, Angleterre, Allemagne, Pologne, Autriche, États Baltes et Scandinavie[5].
-Il est présent dans les départements du quart nord-est de la France métropolitaine[6]. Il a été inventorié en Lozère, dans le Puy-de-Dôme, l'Ain, la Saône-et-Loire, la Nièvre, le Jura, le Doubs, la Côte-d'Or, l'Yonne, la Haute-Marne, la Marne, l'Aisne et l'Ardenne[7].
-Biotope
-Il réside dans les tourbières, les landes humides et les marécages.
-Protection
-Le Fadet des tourbières est une espèce protégée, placée en Europe sur la liste rouge des espèces protégées en Albanie, Allemagne, Autriche, Biélorussie, Belgique, Bosnie-Herzégovine, Croatie, Danemark, Estonie, Finlande, France, Hongrie, Irlande, Italie, Lettonie, Lituanie, Norvège, Pays-Bas, Pologne, Roumanie, Russie, Slovénie, Suède, Suisse, République tchèque et Royaume-Uni[8].
-En France il est inscrit sur la liste des espèces protégées avec la mention E par l'arrêté du 23 avril 2007, article3[9],[10].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet des tourbières est présent dans tout l'hémisphère nord, Amérique du Nord, nord de l'Europe et  Asie tempérée.
+En Europe il est présent en Irlande, Angleterre, Allemagne, Pologne, Autriche, États Baltes et Scandinavie.
+Il est présent dans les départements du quart nord-est de la France métropolitaine. Il a été inventorié en Lozère, dans le Puy-de-Dôme, l'Ain, la Saône-et-Loire, la Nièvre, le Jura, le Doubs, la Côte-d'Or, l'Yonne, la Haute-Marne, la Marne, l'Aisne et l'Ardenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les tourbières, les landes humides et les marécages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fadet_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet des tourbières est une espèce protégée, placée en Europe sur la liste rouge des espèces protégées en Albanie, Allemagne, Autriche, Biélorussie, Belgique, Bosnie-Herzégovine, Croatie, Danemark, Estonie, Finlande, France, Hongrie, Irlande, Italie, Lettonie, Lituanie, Norvège, Pays-Bas, Pologne, Roumanie, Russie, Slovénie, Suède, Suisse, République tchèque et Royaume-Uni.
+En France il est inscrit sur la liste des espèces protégées avec la mention E par l'arrêté du 23 avril 2007, article3,.
 </t>
         </is>
       </c>
